--- a/xlsx/波札那_intext.xlsx
+++ b/xlsx/波札那_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="679">
   <si>
     <t>波札那</t>
   </si>
@@ -29,13 +29,13 @@
     <t>博茨瓦纳国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_波札那</t>
+    <t>政策_政策_美国_波札那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>博茨瓦納國徽</t>
+    <t>博茨瓦纳国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E4%BD%91%E8%BF%99%E9%AB%98%E5%B0%9A%E7%9A%84%E5%9C%9F%E5%9C%B0</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>一級行政區</t>
+    <t>一级行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%8C%BA</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>中非時間</t>
+    <t>中非时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -173,13 +173,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E6%97%A5</t>
   </si>
   <si>
-    <t>獨立日</t>
+    <t>独立日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%93%E8%B7%AF%E9%80%9A%E8%A1%8C%E6%96%B9%E5%90%91</t>
@@ -191,31 +191,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3%E6%80%BB%E7%BB%9F</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>中央銀行</t>
+    <t>中央银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%9C%AD%E9%82%A3%E6%99%AE%E6%8B%89</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.bw</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%99%B8%E5%9C%8B</t>
   </si>
   <si>
-    <t>內陸國</t>
+    <t>内陆国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%9C%B0</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B1%B3%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>納米比亞</t>
+    <t>纳米比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E5%B7%B4%E5%A8%81</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>維多利亞瀑布</t>
+    <t>维多利亚瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%80%B3%E4%BA%BA</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%B0%88%E7%B4%8D</t>
   </si>
   <si>
-    <t>貝專納</t>
+    <t>贝专纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E6%8A%A4%E5%9C%B0</t>
@@ -419,19 +419,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合王國</t>
+    <t>联合王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%91%BD%E7%9F%B3</t>
   </si>
   <si>
-    <t>鑽石</t>
+    <t>钻石</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%80%E5%85%89%E6%A5%AD</t>
   </si>
   <si>
-    <t>觀光業</t>
+    <t>观光业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8D%A1%E8%90%AC%E6%88%88%E6%B2%BC%E6%BE%A4</t>
   </si>
   <si>
-    <t>奧卡萬戈沼澤</t>
+    <t>奥卡万戈沼泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%A7%92%E6%B4%B2</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8D%A1%E8%BF%AA%E5%8D%A1%E8%BF%AA%E9%B9%BD%E6%B2%BC</t>
   </si>
   <si>
-    <t>馬卡迪卡迪鹽沼</t>
+    <t>马卡迪卡迪盐沼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E4%B9%BE%E6%BF%95%E5%AD%A3%E6%B0%A3%E5%80%99</t>
   </si>
   <si>
-    <t>熱帶乾濕季氣候</t>
+    <t>热带干湿季气候</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%9A%E7%BE%8A%E4%BA%9A%E7%A7%91</t>
@@ -491,19 +491,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>博茨瓦納經濟</t>
+    <t>博茨瓦纳经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%80%8F%E6%98%8E%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際透明組織</t>
+    <t>国际透明组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B6%93%E6%BF%9F%E8%AB%96%E5%A3%87</t>
   </si>
   <si>
-    <t>世界經濟論壇</t>
+    <t>世界经济论坛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E8%BF%AA</t>
@@ -521,19 +521,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E9%A2%A8%E9%9A%AA</t>
   </si>
   <si>
-    <t>信用風險</t>
+    <t>信用风险</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E6%AD%90</t>
   </si>
   <si>
-    <t>中歐</t>
+    <t>中欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%9E</t>
   </si>
   <si>
-    <t>東亞</t>
+    <t>东亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2</t>
@@ -551,7 +551,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%B5%B1%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>傳統宗教</t>
+    <t>传统宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -563,31 +563,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%AD%E6%BF%9F%E5%8D%80</t>
   </si>
   <si>
-    <t>杭濟區</t>
+    <t>杭济区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%8B%89%E5%93%88%E8%BF%AA%E5%8D%80</t>
   </si>
   <si>
-    <t>卡拉哈迪區</t>
+    <t>卡拉哈迪区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%89%B9%E5%80%AB%E5%8D%80</t>
   </si>
   <si>
-    <t>卡特倫區</t>
+    <t>卡特伦区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%8E%E5%AB%A9%E5%8D%80</t>
   </si>
   <si>
-    <t>奎嫩區</t>
+    <t>奎嫩区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8C%97%E5%8D%80_(%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D)</t>
   </si>
   <si>
-    <t>東北區 (博茨瓦納)</t>
+    <t>东北区 (博茨瓦纳)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E5%8C%BA_(%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3)</t>
@@ -605,19 +605,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E5%8D%97%E5%8D%80_(%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D)</t>
   </si>
   <si>
-    <t>東南區 (博茨瓦納)</t>
+    <t>东南区 (博茨瓦纳)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%83%A8%E5%8D%80_(%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D)</t>
   </si>
   <si>
-    <t>南部區 (博茨瓦納)</t>
+    <t>南部区 (博茨瓦纳)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%BF%81</t>
   </si>
   <si>
-    <t>馬翁</t>
+    <t>马翁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E7%A7%91%E6%99%AE%E6%96%AF</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%AD%E6%BF%9F</t>
   </si>
   <si>
-    <t>杭濟</t>
+    <t>杭济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E6%95%A6</t>
@@ -647,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%90%8A%E6%B3%A2%E6%B4%9B%E8%90%8A</t>
   </si>
   <si>
-    <t>莫萊波洛萊</t>
+    <t>莫莱波洛莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E5%8D%80_(%E6%B3%A2%E6%9C%AD%E9%82%A3)</t>
   </si>
   <si>
-    <t>中部區 (波札那)</t>
+    <t>中部区 (波札那)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E5%B7%B4%E7%AD%96</t>
@@ -725,13 +725,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%B1%B3%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Africa</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -863,7 +860,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%A4%E9%81%93%E5%87%A0%E5%86%85%E4%BA%9A</t>
@@ -1037,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%A6%E6%A1%91%E5%B0%BC%E4%BA%9A</t>
@@ -1067,7 +1064,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1091,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1259,7 +1256,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B1%B3%E5%B0%BC%E5%85%8B</t>
@@ -1337,7 +1334,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1373,25 +1370,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%AF%E5%8A%A0</t>
   </si>
   <si>
-    <t>湯加</t>
+    <t>汤加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%93%A6%E7%9B%A7</t>
   </si>
   <si>
-    <t>圖瓦盧</t>
+    <t>图瓦卢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%8A%AA%E9%98%BF%E5%9B%BE</t>
@@ -1409,7 +1406,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E4%BB%80%E6%91%A9%E5%8F%8A%E5%8D%A1%E5%9C%B0%E7%88%BE%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>亞什摩及卡地爾群島</t>
+    <t>亚什摩及卡地尔群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%8D%97%E6%9E%81%E9%A2%86%E5%9C%B0</t>
@@ -1439,7 +1436,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%80%E5%BE%97%E5%8F%8A%E9%BA%A5%E5%94%90%E7%B4%8D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>賀得及麥唐納群島</t>
+    <t>贺得及麦唐纳群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E7%A6%8F%E5%85%8B%E5%B2%9B</t>
@@ -1457,7 +1454,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%9F%83</t>
   </si>
   <si>
-    <t>紐埃</t>
+    <t>纽埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%96%AF%E5%B1%9E%E5%9C%B0</t>
@@ -1499,9 +1496,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A2%86%E5%9C%B0</t>
   </si>
   <si>
-    <t>英属印度洋领地</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%9E%E7%BB%B4%E5%B0%94%E4%BA%AC%E7%BE%A4%E5%B2%9B</t>
   </si>
   <si>
@@ -1547,7 +1541,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E7%89%B9%E5%87%AF%E6%81%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1565,7 +1559,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B3%B6%E8%88%87%E5%8D%97%E6%A1%91%E5%A8%81%E5%A5%87%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>南喬治亞島與南桑威奇群島</t>
+    <t>南乔治亚岛与南桑威奇群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%85%8B%E6%96%AF%E4%B8%8E%E5%87%AF%E7%A7%91%E6%96%AF%E7%BE%A4%E5%B2%9B</t>
@@ -1607,9 +1601,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
   </si>
   <si>
@@ -1631,7 +1622,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1835,13 +1826,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E5%85%B0%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -1883,7 +1871,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97</t>
@@ -1907,7 +1895,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1967,7 +1955,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -2021,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2039,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2051,13 +2039,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -6175,7 +6163,7 @@
         <v>235</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="G130" t="n">
         <v>6</v>
@@ -6201,10 +6189,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>236</v>
+      </c>
+      <c r="F131" t="s">
         <v>237</v>
-      </c>
-      <c r="F131" t="s">
-        <v>238</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6259,10 +6247,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>238</v>
+      </c>
+      <c r="F133" t="s">
         <v>239</v>
-      </c>
-      <c r="F133" t="s">
-        <v>240</v>
       </c>
       <c r="G133" t="n">
         <v>5</v>
@@ -6288,10 +6276,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>240</v>
+      </c>
+      <c r="F134" t="s">
         <v>241</v>
-      </c>
-      <c r="F134" t="s">
-        <v>242</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6317,10 +6305,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>242</v>
+      </c>
+      <c r="F135" t="s">
         <v>243</v>
-      </c>
-      <c r="F135" t="s">
-        <v>244</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -6346,10 +6334,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>244</v>
+      </c>
+      <c r="F136" t="s">
         <v>245</v>
-      </c>
-      <c r="F136" t="s">
-        <v>246</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6375,10 +6363,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>246</v>
+      </c>
+      <c r="F137" t="s">
         <v>247</v>
-      </c>
-      <c r="F137" t="s">
-        <v>248</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6404,10 +6392,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>248</v>
+      </c>
+      <c r="F138" t="s">
         <v>249</v>
-      </c>
-      <c r="F138" t="s">
-        <v>250</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -6433,10 +6421,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>250</v>
+      </c>
+      <c r="F139" t="s">
         <v>251</v>
-      </c>
-      <c r="F139" t="s">
-        <v>252</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -6462,10 +6450,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>252</v>
+      </c>
+      <c r="F140" t="s">
         <v>253</v>
-      </c>
-      <c r="F140" t="s">
-        <v>254</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -6491,10 +6479,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>254</v>
+      </c>
+      <c r="F141" t="s">
         <v>255</v>
-      </c>
-      <c r="F141" t="s">
-        <v>256</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6520,10 +6508,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>256</v>
+      </c>
+      <c r="F142" t="s">
         <v>257</v>
-      </c>
-      <c r="F142" t="s">
-        <v>258</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6549,10 +6537,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>258</v>
+      </c>
+      <c r="F143" t="s">
         <v>259</v>
-      </c>
-      <c r="F143" t="s">
-        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6578,10 +6566,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>260</v>
+      </c>
+      <c r="F144" t="s">
         <v>261</v>
-      </c>
-      <c r="F144" t="s">
-        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6607,10 +6595,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>262</v>
+      </c>
+      <c r="F145" t="s">
         <v>263</v>
-      </c>
-      <c r="F145" t="s">
-        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6636,10 +6624,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>264</v>
+      </c>
+      <c r="F146" t="s">
         <v>265</v>
-      </c>
-      <c r="F146" t="s">
-        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -6665,10 +6653,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>266</v>
+      </c>
+      <c r="F147" t="s">
         <v>267</v>
-      </c>
-      <c r="F147" t="s">
-        <v>268</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6694,10 +6682,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>268</v>
+      </c>
+      <c r="F148" t="s">
         <v>269</v>
-      </c>
-      <c r="F148" t="s">
-        <v>270</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6723,10 +6711,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>270</v>
+      </c>
+      <c r="F149" t="s">
         <v>271</v>
-      </c>
-      <c r="F149" t="s">
-        <v>272</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6752,10 +6740,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>272</v>
+      </c>
+      <c r="F150" t="s">
         <v>273</v>
-      </c>
-      <c r="F150" t="s">
-        <v>274</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6781,10 +6769,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>274</v>
+      </c>
+      <c r="F151" t="s">
         <v>275</v>
-      </c>
-      <c r="F151" t="s">
-        <v>276</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6810,10 +6798,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>276</v>
+      </c>
+      <c r="F152" t="s">
         <v>277</v>
-      </c>
-      <c r="F152" t="s">
-        <v>278</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -6839,10 +6827,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>278</v>
+      </c>
+      <c r="F153" t="s">
         <v>279</v>
-      </c>
-      <c r="F153" t="s">
-        <v>280</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -6868,10 +6856,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>280</v>
+      </c>
+      <c r="F154" t="s">
         <v>281</v>
-      </c>
-      <c r="F154" t="s">
-        <v>282</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -6897,10 +6885,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>282</v>
+      </c>
+      <c r="F155" t="s">
         <v>283</v>
-      </c>
-      <c r="F155" t="s">
-        <v>284</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6926,10 +6914,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>284</v>
+      </c>
+      <c r="F156" t="s">
         <v>285</v>
-      </c>
-      <c r="F156" t="s">
-        <v>286</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -6955,10 +6943,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>286</v>
+      </c>
+      <c r="F157" t="s">
         <v>287</v>
-      </c>
-      <c r="F157" t="s">
-        <v>288</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6984,10 +6972,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>288</v>
+      </c>
+      <c r="F158" t="s">
         <v>289</v>
-      </c>
-      <c r="F158" t="s">
-        <v>290</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7013,10 +7001,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>290</v>
+      </c>
+      <c r="F159" t="s">
         <v>291</v>
-      </c>
-      <c r="F159" t="s">
-        <v>292</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7042,10 +7030,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>292</v>
+      </c>
+      <c r="F160" t="s">
         <v>293</v>
-      </c>
-      <c r="F160" t="s">
-        <v>294</v>
       </c>
       <c r="G160" t="n">
         <v>3</v>
@@ -7071,10 +7059,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>294</v>
+      </c>
+      <c r="F161" t="s">
         <v>295</v>
-      </c>
-      <c r="F161" t="s">
-        <v>296</v>
       </c>
       <c r="G161" t="n">
         <v>3</v>
@@ -7100,10 +7088,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>296</v>
+      </c>
+      <c r="F162" t="s">
         <v>297</v>
-      </c>
-      <c r="F162" t="s">
-        <v>298</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7129,10 +7117,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>298</v>
+      </c>
+      <c r="F163" t="s">
         <v>299</v>
-      </c>
-      <c r="F163" t="s">
-        <v>300</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -7158,10 +7146,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>300</v>
+      </c>
+      <c r="F164" t="s">
         <v>301</v>
-      </c>
-      <c r="F164" t="s">
-        <v>302</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7187,10 +7175,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>302</v>
+      </c>
+      <c r="F165" t="s">
         <v>303</v>
-      </c>
-      <c r="F165" t="s">
-        <v>304</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7216,10 +7204,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>304</v>
+      </c>
+      <c r="F166" t="s">
         <v>305</v>
-      </c>
-      <c r="F166" t="s">
-        <v>306</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7245,10 +7233,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>306</v>
+      </c>
+      <c r="F167" t="s">
         <v>307</v>
-      </c>
-      <c r="F167" t="s">
-        <v>308</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7274,10 +7262,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>308</v>
+      </c>
+      <c r="F168" t="s">
         <v>309</v>
-      </c>
-      <c r="F168" t="s">
-        <v>310</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7303,10 +7291,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>310</v>
+      </c>
+      <c r="F169" t="s">
         <v>311</v>
-      </c>
-      <c r="F169" t="s">
-        <v>312</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7332,10 +7320,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>312</v>
+      </c>
+      <c r="F170" t="s">
         <v>313</v>
-      </c>
-      <c r="F170" t="s">
-        <v>314</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -7361,10 +7349,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>314</v>
+      </c>
+      <c r="F171" t="s">
         <v>315</v>
-      </c>
-      <c r="F171" t="s">
-        <v>316</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -7390,10 +7378,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>316</v>
+      </c>
+      <c r="F172" t="s">
         <v>317</v>
-      </c>
-      <c r="F172" t="s">
-        <v>318</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -7419,10 +7407,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>318</v>
+      </c>
+      <c r="F173" t="s">
         <v>319</v>
-      </c>
-      <c r="F173" t="s">
-        <v>320</v>
       </c>
       <c r="G173" t="n">
         <v>3</v>
@@ -7448,10 +7436,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>320</v>
+      </c>
+      <c r="F174" t="s">
         <v>321</v>
-      </c>
-      <c r="F174" t="s">
-        <v>322</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7477,10 +7465,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>322</v>
+      </c>
+      <c r="F175" t="s">
         <v>323</v>
-      </c>
-      <c r="F175" t="s">
-        <v>324</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7506,10 +7494,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>324</v>
+      </c>
+      <c r="F176" t="s">
         <v>325</v>
-      </c>
-      <c r="F176" t="s">
-        <v>326</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7535,10 +7523,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>326</v>
+      </c>
+      <c r="F177" t="s">
         <v>327</v>
-      </c>
-      <c r="F177" t="s">
-        <v>328</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7564,10 +7552,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>328</v>
+      </c>
+      <c r="F178" t="s">
         <v>329</v>
-      </c>
-      <c r="F178" t="s">
-        <v>330</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7593,10 +7581,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>330</v>
+      </c>
+      <c r="F179" t="s">
         <v>331</v>
-      </c>
-      <c r="F179" t="s">
-        <v>332</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7622,10 +7610,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>332</v>
+      </c>
+      <c r="F180" t="s">
         <v>333</v>
-      </c>
-      <c r="F180" t="s">
-        <v>334</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -7651,10 +7639,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>334</v>
+      </c>
+      <c r="F181" t="s">
         <v>335</v>
-      </c>
-      <c r="F181" t="s">
-        <v>336</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7680,10 +7668,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>336</v>
+      </c>
+      <c r="F182" t="s">
         <v>337</v>
-      </c>
-      <c r="F182" t="s">
-        <v>338</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7709,10 +7697,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>338</v>
+      </c>
+      <c r="F183" t="s">
         <v>339</v>
-      </c>
-      <c r="F183" t="s">
-        <v>340</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7738,10 +7726,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>340</v>
+      </c>
+      <c r="F184" t="s">
         <v>341</v>
-      </c>
-      <c r="F184" t="s">
-        <v>342</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7767,10 +7755,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>342</v>
+      </c>
+      <c r="F185" t="s">
         <v>343</v>
-      </c>
-      <c r="F185" t="s">
-        <v>344</v>
       </c>
       <c r="G185" t="n">
         <v>3</v>
@@ -7796,10 +7784,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>344</v>
+      </c>
+      <c r="F186" t="s">
         <v>345</v>
-      </c>
-      <c r="F186" t="s">
-        <v>346</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -7825,10 +7813,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>346</v>
+      </c>
+      <c r="F187" t="s">
         <v>347</v>
-      </c>
-      <c r="F187" t="s">
-        <v>348</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7854,10 +7842,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>348</v>
+      </c>
+      <c r="F188" t="s">
         <v>349</v>
-      </c>
-      <c r="F188" t="s">
-        <v>350</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7883,10 +7871,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>350</v>
+      </c>
+      <c r="F189" t="s">
         <v>351</v>
-      </c>
-      <c r="F189" t="s">
-        <v>352</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7912,10 +7900,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>352</v>
+      </c>
+      <c r="F190" t="s">
         <v>353</v>
-      </c>
-      <c r="F190" t="s">
-        <v>354</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7941,10 +7929,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>354</v>
+      </c>
+      <c r="F191" t="s">
         <v>355</v>
-      </c>
-      <c r="F191" t="s">
-        <v>356</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7970,10 +7958,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>356</v>
+      </c>
+      <c r="F192" t="s">
         <v>357</v>
-      </c>
-      <c r="F192" t="s">
-        <v>358</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7999,10 +7987,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>358</v>
+      </c>
+      <c r="F193" t="s">
         <v>359</v>
-      </c>
-      <c r="F193" t="s">
-        <v>360</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8028,10 +8016,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>360</v>
+      </c>
+      <c r="F194" t="s">
         <v>361</v>
-      </c>
-      <c r="F194" t="s">
-        <v>362</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8057,10 +8045,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>362</v>
+      </c>
+      <c r="F195" t="s">
         <v>363</v>
-      </c>
-      <c r="F195" t="s">
-        <v>364</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -8086,10 +8074,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>364</v>
+      </c>
+      <c r="F196" t="s">
         <v>365</v>
-      </c>
-      <c r="F196" t="s">
-        <v>366</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8115,10 +8103,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>366</v>
+      </c>
+      <c r="F197" t="s">
         <v>367</v>
-      </c>
-      <c r="F197" t="s">
-        <v>368</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8144,10 +8132,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>368</v>
+      </c>
+      <c r="F198" t="s">
         <v>369</v>
-      </c>
-      <c r="F198" t="s">
-        <v>370</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8173,10 +8161,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>370</v>
+      </c>
+      <c r="F199" t="s">
         <v>371</v>
-      </c>
-      <c r="F199" t="s">
-        <v>372</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8202,10 +8190,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>372</v>
+      </c>
+      <c r="F200" t="s">
         <v>373</v>
-      </c>
-      <c r="F200" t="s">
-        <v>374</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8231,10 +8219,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>374</v>
+      </c>
+      <c r="F201" t="s">
         <v>375</v>
-      </c>
-      <c r="F201" t="s">
-        <v>376</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8260,10 +8248,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>376</v>
+      </c>
+      <c r="F202" t="s">
         <v>377</v>
-      </c>
-      <c r="F202" t="s">
-        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8289,10 +8277,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>378</v>
+      </c>
+      <c r="F203" t="s">
         <v>379</v>
-      </c>
-      <c r="F203" t="s">
-        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8318,10 +8306,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>380</v>
+      </c>
+      <c r="F204" t="s">
         <v>381</v>
-      </c>
-      <c r="F204" t="s">
-        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8347,10 +8335,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>382</v>
+      </c>
+      <c r="F205" t="s">
         <v>383</v>
-      </c>
-      <c r="F205" t="s">
-        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8376,10 +8364,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>384</v>
+      </c>
+      <c r="F206" t="s">
         <v>385</v>
-      </c>
-      <c r="F206" t="s">
-        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8405,10 +8393,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>386</v>
+      </c>
+      <c r="F207" t="s">
         <v>387</v>
-      </c>
-      <c r="F207" t="s">
-        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8434,10 +8422,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>388</v>
+      </c>
+      <c r="F208" t="s">
         <v>389</v>
-      </c>
-      <c r="F208" t="s">
-        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8463,10 +8451,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>390</v>
+      </c>
+      <c r="F209" t="s">
         <v>391</v>
-      </c>
-      <c r="F209" t="s">
-        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8492,10 +8480,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>392</v>
+      </c>
+      <c r="F210" t="s">
         <v>393</v>
-      </c>
-      <c r="F210" t="s">
-        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>3</v>
@@ -8521,10 +8509,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>394</v>
+      </c>
+      <c r="F211" t="s">
         <v>395</v>
-      </c>
-      <c r="F211" t="s">
-        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8550,10 +8538,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>396</v>
+      </c>
+      <c r="F212" t="s">
         <v>397</v>
-      </c>
-      <c r="F212" t="s">
-        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8579,10 +8567,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>398</v>
+      </c>
+      <c r="F213" t="s">
         <v>399</v>
-      </c>
-      <c r="F213" t="s">
-        <v>400</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8608,10 +8596,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>400</v>
+      </c>
+      <c r="F214" t="s">
         <v>401</v>
-      </c>
-      <c r="F214" t="s">
-        <v>402</v>
       </c>
       <c r="G214" t="n">
         <v>2</v>
@@ -8637,10 +8625,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>402</v>
+      </c>
+      <c r="F215" t="s">
         <v>403</v>
-      </c>
-      <c r="F215" t="s">
-        <v>404</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8666,10 +8654,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>404</v>
+      </c>
+      <c r="F216" t="s">
         <v>405</v>
-      </c>
-      <c r="F216" t="s">
-        <v>406</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8695,10 +8683,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>406</v>
+      </c>
+      <c r="F217" t="s">
         <v>407</v>
-      </c>
-      <c r="F217" t="s">
-        <v>408</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8724,10 +8712,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>408</v>
+      </c>
+      <c r="F218" t="s">
         <v>409</v>
-      </c>
-      <c r="F218" t="s">
-        <v>410</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8753,10 +8741,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>410</v>
+      </c>
+      <c r="F219" t="s">
         <v>411</v>
-      </c>
-      <c r="F219" t="s">
-        <v>412</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8782,10 +8770,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>412</v>
+      </c>
+      <c r="F220" t="s">
         <v>413</v>
-      </c>
-      <c r="F220" t="s">
-        <v>414</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8811,10 +8799,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>414</v>
+      </c>
+      <c r="F221" t="s">
         <v>415</v>
-      </c>
-      <c r="F221" t="s">
-        <v>416</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8840,10 +8828,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>416</v>
+      </c>
+      <c r="F222" t="s">
         <v>417</v>
-      </c>
-      <c r="F222" t="s">
-        <v>418</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8869,10 +8857,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>418</v>
+      </c>
+      <c r="F223" t="s">
         <v>419</v>
-      </c>
-      <c r="F223" t="s">
-        <v>420</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8898,10 +8886,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>420</v>
+      </c>
+      <c r="F224" t="s">
         <v>421</v>
-      </c>
-      <c r="F224" t="s">
-        <v>422</v>
       </c>
       <c r="G224" t="n">
         <v>5</v>
@@ -8927,10 +8915,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>422</v>
+      </c>
+      <c r="F225" t="s">
         <v>423</v>
-      </c>
-      <c r="F225" t="s">
-        <v>424</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8956,10 +8944,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>330</v>
+      </c>
+      <c r="F226" t="s">
         <v>331</v>
-      </c>
-      <c r="F226" t="s">
-        <v>332</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8985,10 +8973,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>424</v>
+      </c>
+      <c r="F227" t="s">
         <v>425</v>
-      </c>
-      <c r="F227" t="s">
-        <v>426</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9014,10 +9002,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>426</v>
+      </c>
+      <c r="F228" t="s">
         <v>427</v>
-      </c>
-      <c r="F228" t="s">
-        <v>428</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9043,10 +9031,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>428</v>
+      </c>
+      <c r="F229" t="s">
         <v>429</v>
-      </c>
-      <c r="F229" t="s">
-        <v>430</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9072,10 +9060,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>430</v>
+      </c>
+      <c r="F230" t="s">
         <v>431</v>
-      </c>
-      <c r="F230" t="s">
-        <v>432</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9101,10 +9089,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>432</v>
+      </c>
+      <c r="F231" t="s">
         <v>433</v>
-      </c>
-      <c r="F231" t="s">
-        <v>434</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9130,10 +9118,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>434</v>
+      </c>
+      <c r="F232" t="s">
         <v>435</v>
-      </c>
-      <c r="F232" t="s">
-        <v>436</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -9159,10 +9147,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>436</v>
+      </c>
+      <c r="F233" t="s">
         <v>437</v>
-      </c>
-      <c r="F233" t="s">
-        <v>438</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9188,10 +9176,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>438</v>
+      </c>
+      <c r="F234" t="s">
         <v>439</v>
-      </c>
-      <c r="F234" t="s">
-        <v>440</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9217,10 +9205,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>440</v>
+      </c>
+      <c r="F235" t="s">
         <v>441</v>
-      </c>
-      <c r="F235" t="s">
-        <v>442</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9246,10 +9234,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>442</v>
+      </c>
+      <c r="F236" t="s">
         <v>443</v>
-      </c>
-      <c r="F236" t="s">
-        <v>444</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9275,10 +9263,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>444</v>
+      </c>
+      <c r="F237" t="s">
         <v>445</v>
-      </c>
-      <c r="F237" t="s">
-        <v>446</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9304,10 +9292,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>446</v>
+      </c>
+      <c r="F238" t="s">
         <v>447</v>
-      </c>
-      <c r="F238" t="s">
-        <v>448</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9333,10 +9321,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>448</v>
+      </c>
+      <c r="F239" t="s">
         <v>449</v>
-      </c>
-      <c r="F239" t="s">
-        <v>450</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9362,10 +9350,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>450</v>
+      </c>
+      <c r="F240" t="s">
         <v>451</v>
-      </c>
-      <c r="F240" t="s">
-        <v>452</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9391,10 +9379,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>452</v>
+      </c>
+      <c r="F241" t="s">
         <v>453</v>
-      </c>
-      <c r="F241" t="s">
-        <v>454</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9420,10 +9408,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>454</v>
+      </c>
+      <c r="F242" t="s">
         <v>455</v>
-      </c>
-      <c r="F242" t="s">
-        <v>456</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9449,10 +9437,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>456</v>
+      </c>
+      <c r="F243" t="s">
         <v>457</v>
-      </c>
-      <c r="F243" t="s">
-        <v>458</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9478,10 +9466,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>458</v>
+      </c>
+      <c r="F244" t="s">
         <v>459</v>
-      </c>
-      <c r="F244" t="s">
-        <v>460</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9507,13 +9495,13 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>460</v>
+      </c>
+      <c r="F245" t="s">
         <v>461</v>
       </c>
-      <c r="F245" t="s">
-        <v>462</v>
-      </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9536,10 +9524,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>462</v>
+      </c>
+      <c r="F246" t="s">
         <v>463</v>
-      </c>
-      <c r="F246" t="s">
-        <v>464</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9565,10 +9553,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>464</v>
+      </c>
+      <c r="F247" t="s">
         <v>465</v>
-      </c>
-      <c r="F247" t="s">
-        <v>466</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9594,10 +9582,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>466</v>
+      </c>
+      <c r="F248" t="s">
         <v>467</v>
-      </c>
-      <c r="F248" t="s">
-        <v>468</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9623,10 +9611,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>468</v>
+      </c>
+      <c r="F249" t="s">
         <v>469</v>
-      </c>
-      <c r="F249" t="s">
-        <v>470</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9652,10 +9640,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>470</v>
+      </c>
+      <c r="F250" t="s">
         <v>471</v>
-      </c>
-      <c r="F250" t="s">
-        <v>472</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9681,10 +9669,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>472</v>
+      </c>
+      <c r="F251" t="s">
         <v>473</v>
-      </c>
-      <c r="F251" t="s">
-        <v>474</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9710,10 +9698,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>474</v>
+      </c>
+      <c r="F252" t="s">
         <v>475</v>
-      </c>
-      <c r="F252" t="s">
-        <v>476</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9739,10 +9727,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>476</v>
+      </c>
+      <c r="F253" t="s">
         <v>477</v>
-      </c>
-      <c r="F253" t="s">
-        <v>478</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9768,10 +9756,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>478</v>
+      </c>
+      <c r="F254" t="s">
         <v>479</v>
-      </c>
-      <c r="F254" t="s">
-        <v>480</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9797,10 +9785,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>480</v>
+      </c>
+      <c r="F255" t="s">
         <v>481</v>
-      </c>
-      <c r="F255" t="s">
-        <v>482</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9826,10 +9814,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>482</v>
+      </c>
+      <c r="F256" t="s">
         <v>483</v>
-      </c>
-      <c r="F256" t="s">
-        <v>484</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9855,10 +9843,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>484</v>
+      </c>
+      <c r="F257" t="s">
         <v>485</v>
-      </c>
-      <c r="F257" t="s">
-        <v>486</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9884,10 +9872,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>486</v>
+      </c>
+      <c r="F258" t="s">
         <v>487</v>
-      </c>
-      <c r="F258" t="s">
-        <v>488</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9913,10 +9901,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>488</v>
+      </c>
+      <c r="F259" t="s">
         <v>489</v>
-      </c>
-      <c r="F259" t="s">
-        <v>490</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9942,10 +9930,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>490</v>
+      </c>
+      <c r="F260" t="s">
         <v>491</v>
-      </c>
-      <c r="F260" t="s">
-        <v>492</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9971,10 +9959,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>349</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10000,10 +9988,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10029,10 +10017,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10058,10 +10046,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10087,10 +10075,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10116,10 +10104,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10145,10 +10133,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10174,10 +10162,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10203,10 +10191,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F269" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10232,10 +10220,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F270" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10261,10 +10249,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F271" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10290,10 +10278,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F272" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10319,10 +10307,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F273" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10348,10 +10336,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F274" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10377,10 +10365,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F275" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10406,10 +10394,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F276" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10435,10 +10423,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F277" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10464,10 +10452,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F278" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10493,10 +10481,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F279" t="s">
-        <v>530</v>
+        <v>407</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10522,10 +10510,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10551,10 +10539,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10580,10 +10568,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="G282" t="n">
         <v>17</v>
@@ -10609,10 +10597,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10638,10 +10626,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F284" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10667,10 +10655,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F285" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10696,10 +10684,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F286" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10725,10 +10713,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F287" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10754,10 +10742,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F288" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10783,10 +10771,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>300</v>
+      </c>
+      <c r="F289" t="s">
         <v>301</v>
-      </c>
-      <c r="F289" t="s">
-        <v>302</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10812,10 +10800,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10841,10 +10829,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10870,10 +10858,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
+        <v>302</v>
+      </c>
+      <c r="F292" t="s">
         <v>303</v>
-      </c>
-      <c r="F292" t="s">
-        <v>304</v>
       </c>
       <c r="G292" t="n">
         <v>3</v>
@@ -10899,10 +10887,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10928,10 +10916,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10957,10 +10945,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F295" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10986,10 +10974,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F296" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11015,10 +11003,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
+        <v>268</v>
+      </c>
+      <c r="F297" t="s">
         <v>269</v>
-      </c>
-      <c r="F297" t="s">
-        <v>270</v>
       </c>
       <c r="G297" t="n">
         <v>6</v>
@@ -11044,10 +11032,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F298" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11073,10 +11061,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F299" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11102,10 +11090,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F300" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11131,10 +11119,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F301" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11160,10 +11148,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F302" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11189,10 +11177,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F303" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11218,10 +11206,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F304" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11247,10 +11235,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F305" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11276,10 +11264,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F306" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11305,10 +11293,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F307" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11334,10 +11322,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F308" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11363,10 +11351,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F309" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11392,10 +11380,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F310" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11421,10 +11409,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F311" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11450,10 +11438,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F312" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11479,10 +11467,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F313" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11508,10 +11496,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="F314" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11537,10 +11525,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F315" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11566,10 +11554,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F316" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11595,10 +11583,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="F317" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11624,10 +11612,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F318" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11653,10 +11641,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
+        <v>440</v>
+      </c>
+      <c r="F319" t="s">
         <v>441</v>
-      </c>
-      <c r="F319" t="s">
-        <v>442</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11682,10 +11670,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11711,10 +11699,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="F321" t="s">
-        <v>606</v>
+        <v>451</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11740,10 +11728,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F322" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11769,10 +11757,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F323" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11798,10 +11786,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="F324" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11827,10 +11815,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="F325" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11856,10 +11844,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F326" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11885,10 +11873,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F327" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -11914,10 +11902,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="F328" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -11943,10 +11931,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F329" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -11972,10 +11960,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F330" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12001,10 +11989,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F331" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12030,10 +12018,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F332" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12059,10 +12047,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="F333" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12088,10 +12076,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F334" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12117,10 +12105,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F335" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12146,10 +12134,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="F336" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12175,10 +12163,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="F337" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12204,10 +12192,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F338" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12233,10 +12221,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F339" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12262,10 +12250,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="F340" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12291,10 +12279,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F341" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12320,10 +12308,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="F342" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12349,10 +12337,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F343" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12378,10 +12366,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="F344" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12407,10 +12395,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F345" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12436,10 +12424,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F346" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12465,10 +12453,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="F347" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12494,10 +12482,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F348" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12523,10 +12511,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F349" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12552,10 +12540,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F350" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12581,10 +12569,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F351" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G351" t="n">
         <v>2</v>
@@ -12610,10 +12598,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F352" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G352" t="n">
         <v>3</v>
@@ -12639,10 +12627,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F353" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12668,10 +12656,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F354" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12697,10 +12685,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F355" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12726,10 +12714,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F356" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12755,10 +12743,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F357" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12784,10 +12772,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F358" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12813,10 +12801,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F359" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G359" t="n">
         <v>3</v>

--- a/xlsx/波札那_intext.xlsx
+++ b/xlsx/波札那_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="687">
   <si>
     <t>波札那</t>
   </si>
@@ -29,7 +29,7 @@
     <t>博茨瓦纳国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_波札那</t>
+    <t>体育运动_体育运动_南非_波札那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%B4%8D%E5%9C%8B%E5%BE%BD</t>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>內陸國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
+  </si>
+  <si>
+    <t>新聞自由</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>財產權</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%9C%B0</t>
@@ -2412,7 +2424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I359"/>
+  <dimension ref="A1:I361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4119,7 +4131,7 @@
         <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -4177,7 +4189,7 @@
         <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -4235,7 +4247,7 @@
         <v>120</v>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -4293,7 +4305,7 @@
         <v>124</v>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -4351,7 +4363,7 @@
         <v>128</v>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -4467,7 +4479,7 @@
         <v>136</v>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -4554,7 +4566,7 @@
         <v>142</v>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -4583,7 +4595,7 @@
         <v>144</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -4612,7 +4624,7 @@
         <v>146</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -4670,7 +4682,7 @@
         <v>150</v>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -4786,7 +4798,7 @@
         <v>158</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -4815,7 +4827,7 @@
         <v>160</v>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>4</v>
@@ -4873,7 +4885,7 @@
         <v>164</v>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -5076,7 +5088,7 @@
         <v>178</v>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -5134,7 +5146,7 @@
         <v>182</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="s">
         <v>4</v>
@@ -5308,7 +5320,7 @@
         <v>194</v>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -5366,7 +5378,7 @@
         <v>198</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" t="s">
         <v>4</v>
@@ -5482,7 +5494,7 @@
         <v>206</v>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -5540,7 +5552,7 @@
         <v>210</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
         <v>4</v>
@@ -5563,13 +5575,13 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>4</v>
@@ -5592,10 +5604,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5621,13 +5633,13 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
       <c r="F111" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
         <v>4</v>
@@ -5650,10 +5662,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="F112" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5679,10 +5691,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F113" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5708,10 +5720,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="F114" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5737,10 +5749,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="F115" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5766,10 +5778,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5795,10 +5807,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F117" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5853,10 +5865,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="F119" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5882,10 +5894,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="F120" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5975,7 +5987,7 @@
         <v>222</v>
       </c>
       <c r="G123" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -6033,7 +6045,7 @@
         <v>226</v>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -6178,7 +6190,7 @@
         <v>236</v>
       </c>
       <c r="G130" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -6230,13 +6242,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="F132" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -6259,13 +6271,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F133" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -6288,10 +6300,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>241</v>
+        <v>119</v>
       </c>
       <c r="F134" t="s">
-        <v>242</v>
+        <v>120</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6323,7 +6335,7 @@
         <v>244</v>
       </c>
       <c r="G135" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -6352,7 +6364,7 @@
         <v>246</v>
       </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H136" t="s">
         <v>4</v>
@@ -6410,7 +6422,7 @@
         <v>250</v>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -6439,7 +6451,7 @@
         <v>252</v>
       </c>
       <c r="G139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -6468,7 +6480,7 @@
         <v>254</v>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -6497,7 +6509,7 @@
         <v>256</v>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H141" t="s">
         <v>4</v>
@@ -6613,7 +6625,7 @@
         <v>264</v>
       </c>
       <c r="G145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H145" t="s">
         <v>4</v>
@@ -6671,7 +6683,7 @@
         <v>268</v>
       </c>
       <c r="G147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -6729,7 +6741,7 @@
         <v>272</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H149" t="s">
         <v>4</v>
@@ -6787,7 +6799,7 @@
         <v>276</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H151" t="s">
         <v>4</v>
@@ -6874,7 +6886,7 @@
         <v>282</v>
       </c>
       <c r="G154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -6990,7 +7002,7 @@
         <v>290</v>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -7019,7 +7031,7 @@
         <v>292</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -7048,7 +7060,7 @@
         <v>294</v>
       </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H160" t="s">
         <v>4</v>
@@ -7077,7 +7089,7 @@
         <v>296</v>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -7106,7 +7118,7 @@
         <v>298</v>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -7135,7 +7147,7 @@
         <v>300</v>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H163" t="s">
         <v>4</v>
@@ -7164,7 +7176,7 @@
         <v>302</v>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="s">
         <v>4</v>
@@ -7193,7 +7205,7 @@
         <v>304</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" t="s">
         <v>4</v>
@@ -7222,7 +7234,7 @@
         <v>306</v>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>4</v>
@@ -7309,7 +7321,7 @@
         <v>312</v>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -7338,7 +7350,7 @@
         <v>314</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -7367,7 +7379,7 @@
         <v>316</v>
       </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -7454,7 +7466,7 @@
         <v>322</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -7483,7 +7495,7 @@
         <v>324</v>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H175" t="s">
         <v>4</v>
@@ -7512,7 +7524,7 @@
         <v>326</v>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H176" t="s">
         <v>4</v>
@@ -7541,7 +7553,7 @@
         <v>328</v>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177" t="s">
         <v>4</v>
@@ -7628,7 +7640,7 @@
         <v>334</v>
       </c>
       <c r="G180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>4</v>
@@ -7657,7 +7669,7 @@
         <v>336</v>
       </c>
       <c r="G181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H181" t="s">
         <v>4</v>
@@ -7715,7 +7727,7 @@
         <v>340</v>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7773,7 +7785,7 @@
         <v>344</v>
       </c>
       <c r="G185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7831,7 +7843,7 @@
         <v>348</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7860,7 +7872,7 @@
         <v>350</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -8063,7 +8075,7 @@
         <v>364</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -8121,7 +8133,7 @@
         <v>368</v>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -8324,7 +8336,7 @@
         <v>382</v>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -8353,7 +8365,7 @@
         <v>384</v>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="s">
         <v>4</v>
@@ -8382,7 +8394,7 @@
         <v>386</v>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H206" t="s">
         <v>4</v>
@@ -8469,7 +8481,7 @@
         <v>392</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -8498,7 +8510,7 @@
         <v>394</v>
       </c>
       <c r="G210" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8556,7 +8568,7 @@
         <v>398</v>
       </c>
       <c r="G212" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8585,7 +8597,7 @@
         <v>400</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8701,7 +8713,7 @@
         <v>408</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8730,7 +8742,7 @@
         <v>410</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8817,7 +8829,7 @@
         <v>416</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8846,7 +8858,7 @@
         <v>418</v>
       </c>
       <c r="G222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -8904,7 +8916,7 @@
         <v>422</v>
       </c>
       <c r="G224" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H224" t="s">
         <v>4</v>
@@ -8956,13 +8968,13 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>331</v>
+        <v>425</v>
       </c>
       <c r="F226" t="s">
-        <v>332</v>
+        <v>426</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -8985,13 +8997,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -9014,13 +9026,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>335</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9078,7 +9090,7 @@
         <v>432</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H230" t="s">
         <v>4</v>
@@ -9136,7 +9148,7 @@
         <v>436</v>
       </c>
       <c r="G232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H232" t="s">
         <v>4</v>
@@ -9165,7 +9177,7 @@
         <v>438</v>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H233" t="s">
         <v>4</v>
@@ -9223,7 +9235,7 @@
         <v>442</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9368,7 +9380,7 @@
         <v>452</v>
       </c>
       <c r="G240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -9426,7 +9438,7 @@
         <v>456</v>
       </c>
       <c r="G242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -9513,7 +9525,7 @@
         <v>462</v>
       </c>
       <c r="G245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9542,7 +9554,7 @@
         <v>464</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9571,7 +9583,7 @@
         <v>466</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -10586,7 +10598,7 @@
         <v>536</v>
       </c>
       <c r="G282" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -10644,7 +10656,7 @@
         <v>540</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10783,10 +10795,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>301</v>
+        <v>549</v>
       </c>
       <c r="F289" t="s">
-        <v>302</v>
+        <v>550</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10812,10 +10824,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10841,10 +10853,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>305</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>306</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10870,13 +10882,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>303</v>
+        <v>553</v>
       </c>
       <c r="F292" t="s">
-        <v>304</v>
+        <v>554</v>
       </c>
       <c r="G292" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -10899,10 +10911,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F293" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10928,13 +10940,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>555</v>
+        <v>307</v>
       </c>
       <c r="F294" t="s">
-        <v>556</v>
+        <v>308</v>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -11015,13 +11027,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>269</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>270</v>
+        <v>562</v>
       </c>
       <c r="G297" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -11044,10 +11056,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F298" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11073,13 +11085,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>563</v>
+        <v>273</v>
       </c>
       <c r="F299" t="s">
-        <v>564</v>
+        <v>274</v>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -11653,10 +11665,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>441</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>442</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11682,10 +11694,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11711,10 +11723,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>605</v>
+        <v>445</v>
       </c>
       <c r="F321" t="s">
-        <v>606</v>
+        <v>446</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12587,7 +12599,7 @@
         <v>666</v>
       </c>
       <c r="G351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -12616,7 +12628,7 @@
         <v>668</v>
       </c>
       <c r="G352" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -12645,7 +12657,7 @@
         <v>670</v>
       </c>
       <c r="G353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -12674,7 +12686,7 @@
         <v>672</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -12819,12 +12831,70 @@
         <v>682</v>
       </c>
       <c r="G359" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H359" t="s">
         <v>4</v>
       </c>
       <c r="I359" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1</v>
+      </c>
+      <c r="D360" t="n">
+        <v>359</v>
+      </c>
+      <c r="E360" t="s">
+        <v>683</v>
+      </c>
+      <c r="F360" t="s">
+        <v>684</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1</v>
+      </c>
+      <c r="H360" t="s">
+        <v>4</v>
+      </c>
+      <c r="I360" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1</v>
+      </c>
+      <c r="D361" t="n">
+        <v>360</v>
+      </c>
+      <c r="E361" t="s">
+        <v>685</v>
+      </c>
+      <c r="F361" t="s">
+        <v>686</v>
+      </c>
+      <c r="G361" t="n">
+        <v>3</v>
+      </c>
+      <c r="H361" t="s">
+        <v>4</v>
+      </c>
+      <c r="I361" t="n">
         <v>3</v>
       </c>
     </row>
